--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1886,17 +1886,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.6953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.6953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.86328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1905,27 +1905,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.82421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="125.9375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="119.7578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="25.75" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1886,17 +1886,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.6953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.86328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1905,27 +1905,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.82421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.6953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="119.7578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="25.75" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="125.9375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -525,7 +525,7 @@
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](http://hl7.org/fhir/uv/sdc/STU3/OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](http://hl7.org/fhir/uv/sdc/STU3/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
   </si>
   <si>
     <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,7 +460,7 @@
     <t>designNote</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {designNote}
+    <t xml:space="preserve">Extension {designNote|5.2.0}
 </t>
   </si>
   <si>
@@ -1886,17 +1886,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.27734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1905,27 +1905,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="125.9375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.96875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,7 +460,7 @@
     <t>designNote</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {designNote|5.2.0}
+    <t xml:space="preserve">Extension {designNote|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -3219,7 +3219,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>158</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>171</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>202</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>215</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>232</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>331</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>354</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>371</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>378</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>382</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>423</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>429</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>435</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>441</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>447</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>453</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>470</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>479</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>484</v>
       </c>
@@ -10402,12 +10402,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO72">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
